--- a/Control_de_lectura/S1M22019_Control de lectura_Antes de renunciar a tu empleo.xlsx
+++ b/Control_de_lectura/S1M22019_Control de lectura_Antes de renunciar a tu empleo.xlsx
@@ -327,14 +327,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -669,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,10 +697,10 @@
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="7"/>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="31"/>
+      <c r="D5" s="33"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
@@ -799,16 +799,18 @@
       <c r="A15" s="24">
         <v>1</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="25"/>
+      <c r="C15" s="25">
+        <v>9</v>
+      </c>
       <c r="D15" s="28"/>
       <c r="E15" s="25"/>
       <c r="F15" s="29"/>
       <c r="G15" s="23">
         <f>SUM(C15:F15)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I15"/>
     </row>
@@ -816,141 +818,165 @@
       <c r="A16">
         <v>2</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="26"/>
+      <c r="C16" s="26">
+        <v>10</v>
+      </c>
       <c r="D16" s="10"/>
       <c r="E16" s="12"/>
       <c r="F16" s="19"/>
       <c r="G16" s="12">
         <f>SUM(C16:F16)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
         <v>3</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="26"/>
+      <c r="C17" s="26">
+        <v>10</v>
+      </c>
       <c r="D17" s="10"/>
       <c r="E17" s="12"/>
       <c r="F17" s="19"/>
       <c r="G17" s="12">
         <f t="shared" ref="G17:G38" si="2">SUM(C17:F17)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="26"/>
+      <c r="C18" s="26">
+        <v>10</v>
+      </c>
       <c r="D18" s="18"/>
       <c r="E18" s="12"/>
       <c r="F18" s="19"/>
       <c r="G18" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="24">
         <v>5</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="26"/>
+      <c r="C19" s="26">
+        <v>10</v>
+      </c>
       <c r="D19" s="18"/>
       <c r="E19" s="12"/>
       <c r="F19" s="19"/>
       <c r="G19" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>6</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="26"/>
+      <c r="C20" s="26">
+        <v>9</v>
+      </c>
       <c r="D20" s="18"/>
       <c r="E20" s="12"/>
       <c r="F20" s="19"/>
       <c r="G20" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
         <v>7</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="26"/>
+      <c r="C21" s="26">
+        <v>9</v>
+      </c>
       <c r="D21" s="18"/>
       <c r="E21" s="12"/>
       <c r="F21" s="19"/>
       <c r="G21" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>8</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="26"/>
+      <c r="C22" s="26">
+        <v>10</v>
+      </c>
       <c r="D22" s="18"/>
       <c r="E22" s="12"/>
       <c r="F22" s="19"/>
       <c r="G22" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="24">
         <v>9</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="26"/>
+      <c r="C23" s="26">
+        <v>9</v>
+      </c>
       <c r="D23" s="18"/>
       <c r="E23" s="12"/>
       <c r="F23" s="19"/>
       <c r="G23" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>10</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="26"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="19"/>
+      <c r="C24" s="26">
+        <v>0</v>
+      </c>
+      <c r="D24" s="18">
+        <v>0</v>
+      </c>
+      <c r="E24" s="12">
+        <v>0</v>
+      </c>
+      <c r="F24" s="19">
+        <v>0</v>
+      </c>
       <c r="G24" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
